--- a/data/1/МСТиГ/!печать/З/Номера зачеток второе высшее.xlsx
+++ b/data/1/МСТиГ/!печать/З/Номера зачеток второе высшее.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Студенческие\2023-24\МСТиГ\!печать\З\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwlo\zachetker\data-sharer\data\1\МСТиГ\!печать\З\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81224986-0BE4-4271-B6E2-C9DD81B95C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E8F07B-5005-4356-AE6F-D1339B8853D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="422" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Суботко Савелий Александрович</t>
   </si>
   <si>
-    <t>№ студенческого билета, зачетки</t>
-  </si>
-  <si>
     <t>ФИО</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>уризм и гостеприимство</t>
+  </si>
+  <si>
+    <t>N_ZACHET</t>
   </si>
 </sst>
 </file>
@@ -540,59 +540,59 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E12:E13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -603,28 +603,28 @@
         <v>0</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="12">
         <v>234278</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/1/МСТиГ/!печать/З/Номера зачеток второе высшее.xlsx
+++ b/data/1/МСТиГ/!печать/З/Номера зачеток второе высшее.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwlo\zachetker\data-sharer\data\1\МСТиГ\!печать\З\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E8F07B-5005-4356-AE6F-D1339B8853D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F633083-D419-4C03-B4BD-13B13CB00F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="422" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'422'!$A$3:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'422'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>234255</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>№ п/п</t>
-  </si>
-  <si>
-    <t>Заочное</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>«Туризм и гостеприимство» второе высшее на 2 курс</t>
   </si>
   <si>
     <t>Тришина Алина</t>
@@ -71,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,14 +85,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -135,15 +118,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -160,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -172,17 +146,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -193,12 +163,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -537,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,94 +513,73 @@
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="10">
+        <v>234278</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12">
-        <v>234278</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G5">
-      <sortCondition descending="1" ref="C3"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+      <sortCondition descending="1" ref="C1"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
